--- a/biology/Médecine/Pathologie_ORL_professionnelle/Pathologie_ORL_professionnelle.xlsx
+++ b/biology/Médecine/Pathologie_ORL_professionnelle/Pathologie_ORL_professionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cet article seront traités les otites barotraumatiques (plongeurs et aviateurs), l'ostéonécrose du maxillaire provoquée par le phosphore et le radium ainsi que le cancer de l'ethmoïde lié aux poussières de bois, au chrome et au formol.
 </t>
@@ -513,12 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ostéonécrose du maxillaire par le phosphore
-L’ostéonécrose de la mâchoire, plus précisément la nécrose phosphorée de la mâchoire est un risque mortel pour les professionnels qui travaillent au contact du phosphore blanc dans un environnement non sécurisé. Cette maladie était couramment observée chez les travailleurs de l’industrie des allumettes au XIXe et au début du XXe siècle. Les pratiques modernes d'hygiène industrielle ont permis d'éliminer les conditions de travail qui conduisaient à cette calamité.
+          <t>Ostéonécrose du maxillaire par le phosphore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ostéonécrose de la mâchoire, plus précisément la nécrose phosphorée de la mâchoire est un risque mortel pour les professionnels qui travaillent au contact du phosphore blanc dans un environnement non sécurisé. Cette maladie était couramment observée chez les travailleurs de l’industrie des allumettes au XIXe et au début du XXe siècle. Les pratiques modernes d'hygiène industrielle ont permis d'éliminer les conditions de travail qui conduisaient à cette calamité.
 L'exposition chronique aux vapeurs de phosphore blanc, la substance active de la plupart des allumettes de 1840 à 1910, provoquait le dépôt de phosphore dans les os de la mâchoire. Elle était également responsable de graves lésions du cerveau. Les travailleurs atteints présentaient d’abord d’atroces maux de dents et de gonflement des gencives. Au fil du temps, un abcès se formait dans l'os de la mâchoire, c’était un processus qui était extrêmement douloureux et qui aboutissait à défigurer le patient, et répugnant pour l’entourage, car le drainage du tissu osseux nécrosé provoque un écoulement purulent extrêmement nauséabond. Les os de la mâchoire pourrissent progressivement et émettent dans l’obscurité une lueur de couleur blanc-verdâtre. L’exérèse  chirurgicale de la mâchoire ou le curage de l’os nécrosé pouvait sauver la vie des personnes atteintes. En l’absence de ce traitement radical et mutilant, la mort survenait immanquablement.
-La réprobation publique a finalement conduit à des changements dans la fabrication des allumettes qui ont éliminé la maladie. Dans certains pays, des mesures législatives ont  été nécessaires pour imposer ces changements à des industriels réticents[1].
+La réprobation publique a finalement conduit à des changements dans la fabrication des allumettes qui ont éliminé la maladie. Dans certains pays, des mesures législatives ont  été nécessaires pour imposer ces changements à des industriels réticents.
 Cette affection est toujours inscrite sur la liste des maladies professionnelles. Voir Phosphore, Tableau no 5 des maladies professionnelles
-Une autre circonstance de survenue de l’ostéonécrose de la mâchoire, a été décrite comme effet secondaire de l’utilisation des bisphosphonates, une classe de médicaments à base de phosphore qui inhibent la résorption osseuse, et sont largement utilisés pour le traitement de l’ostéoporose, et des maladies osseuses dans le cancer et certaines autres situations[2].
+Une autre circonstance de survenue de l’ostéonécrose de la mâchoire, a été décrite comme effet secondaire de l’utilisation des bisphosphonates, une classe de médicaments à base de phosphore qui inhibent la résorption osseuse, et sont largement utilisés pour le traitement de l’ostéoporose, et des maladies osseuses dans le cancer et certaines autres situations.
 </t>
         </is>
       </c>
